--- a/Žiurkių duomenys.xlsx
+++ b/Žiurkių duomenys.xlsx
@@ -989,12 +989,12 @@
   </sheetPr>
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P16" activeCellId="0" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,7 +1002,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.82"/>

--- a/Žiurkių duomenys.xlsx
+++ b/Žiurkių duomenys.xlsx
@@ -990,11 +990,11 @@
   <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="M100" activeCellId="0" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5364,7 +5364,7 @@
         <v>42</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="N99" s="3" t="s">
         <v>50</v>
